--- a/女宝_20180328.xlsx
+++ b/女宝_20180328.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/G-Drive/cx/mygit/wangyunpiao/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27300" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="1080" yWindow="1420" windowWidth="32140" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="女宝" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>收件人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +54,6 @@
   </si>
   <si>
     <t>女宝一套</t>
-  </si>
-  <si>
-    <t>索引-添加时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>原始数据</t>
@@ -264,6 +268,33 @@
   </si>
   <si>
     <t>女宝4套</t>
+  </si>
+  <si>
+    <t>0329 发件人WAN0475837848 收件人直邮地址是这个：晋江市东石镇井林开发区49号。蔡丽丽收，135-9970-6908。内容儿童康迪克水杯三个一组男款一套➕女款一套，350582198702013569</t>
+  </si>
+  <si>
+    <t>晋江市东石镇井林开发区49号</t>
+  </si>
+  <si>
+    <t>蔡丽丽</t>
+  </si>
+  <si>
+    <t>135-9970-6908</t>
+  </si>
+  <si>
+    <t>350582198702013569</t>
+  </si>
+  <si>
+    <t>儿童康迪克水杯三个一组男款一套➕女款一套</t>
+  </si>
+  <si>
+    <t>直邮 0329 发件人WAN0475837848</t>
+  </si>
+  <si>
+    <t>索引-按添加时间</t>
+  </si>
+  <si>
+    <t>记录日期</t>
   </si>
 </sst>
 </file>
@@ -274,14 +305,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -290,7 +320,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -299,7 +329,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -308,13 +338,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +473,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -472,94 +508,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="83">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -887,26 +952,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="87.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="87.1640625" style="11" customWidth="1"/>
     <col min="9" max="9" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="18" customWidth="1"/>
     <col min="11" max="16384" width="29.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,182 +988,203 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>77</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
+      <c r="H2" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="30">
+      <c r="J2" s="19">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="30">
+      <c r="J3" s="19">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
+      <c r="H4" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="45">
+      <c r="J4" s="19">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="60">
+      <c r="J5" s="19">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="60">
+      <c r="J6" s="19">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="3">
         <v>3</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="30">
+      <c r="J7" s="19">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -1107,148 +1193,190 @@
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="30">
+      <c r="J8" s="19">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="6">
         <v>2</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>53</v>
+      <c r="H9" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="I9" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="30">
+      <c r="J9" s="19">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="I10" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="30">
+      <c r="J10" s="19">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="30">
+      <c r="J11" s="19">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="F12" s="3">
         <v>4</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J12" s="19">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="14">
+        <v>2</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="14">
+        <v>12</v>
+      </c>
+      <c r="J13" s="19">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1">
+    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -1256,118 +1384,118 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K45" s="3">
         <f>SUM(F:F)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1377,10 +1505,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/女宝_20180328.xlsx
+++ b/女宝_20180328.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>收件人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,13 +295,98 @@
   </si>
   <si>
     <t>记录日期</t>
+  </si>
+  <si>
+    <t>康迪克女杯1⃣️ 寄件人：辰辰妈妈  收货地址：南京市江宁区天元中路东渡国际3栋1505室  陈美君13276673566 身份证号：431121198610291728</t>
+  </si>
+  <si>
+    <t>5套女宝:四川省成都市双流西航港机场路近都段6号欧洲印象 周皓月 18628977322</t>
+  </si>
+  <si>
+    <t>10套女款，江苏省常州市钟楼区锦江丽都7丙701孔欣18806338720</t>
+  </si>
+  <si>
+    <t>女款5套山东莱芜市莱城区文化北路新起点高中北临奇妙妈妈店铺赵瑞13863367519</t>
+  </si>
+  <si>
+    <t>广西钦州市灵山县聚龙湾A区5栋2单元 黄东英 18877781987，450721198609116821，女宝一套</t>
+  </si>
+  <si>
+    <t>河南省新乡市红旗区向阳路与振中路交汇处拉菲国际  林丽萍13782560915，女孩一套</t>
+  </si>
+  <si>
+    <t>河南省新乡市卫滨区解放路紫台一品20号，赵亚楠，13782532325，女孩一套</t>
+  </si>
+  <si>
+    <r>
+      <t>女宝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue Light"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC Light"/>
+      </rPr>
+      <t>套</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue Light"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC Light"/>
+      </rPr>
+      <t>乐山市市中区凤凰路北段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue Light"/>
+      </rPr>
+      <t>269</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC Light"/>
+      </rPr>
+      <t>号，优品汇，周皓月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue Light"/>
+      </rPr>
+      <t xml:space="preserve"> 18728896662</t>
+    </r>
+  </si>
+  <si>
+    <t>350822198503213920</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,6 +426,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val=".PingFang SC Light"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -473,14 +584,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -493,44 +601,76 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -952,548 +1092,626 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="87.1640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="29.33203125" style="3"/>
+    <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="87.1640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="29.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="38" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="18">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="18">
         <v>1</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="22">
         <v>43187</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="18">
         <v>1</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="18">
         <v>2</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="22">
         <v>43187</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" ht="38" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="18">
         <v>1</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="18">
         <v>3</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="22">
         <v>43187</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:10" ht="76" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="18">
         <v>4</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="18">
         <v>4</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="22">
         <v>43187</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" ht="76" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="18">
         <v>2</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="18">
         <v>5</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="22">
         <v>43187</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:10" ht="76" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="18">
         <v>3</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="18">
         <v>6</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="22">
         <v>43187</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:10" ht="38" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="18">
         <v>1</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="18">
         <v>7</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="22">
         <v>43187</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:10" ht="38" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="23">
         <v>2</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="13" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="18">
         <v>8</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="22">
         <v>43187</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:10" ht="38" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="18">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="18">
         <v>9</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="22">
         <v>43187</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:10" ht="38" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="18">
         <v>1</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="18"/>
+      <c r="H11" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="18">
         <v>10</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="22">
         <v>43187</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="18">
         <v>4</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="18">
         <v>11</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="22">
         <v>43187</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="27">
         <v>2</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="27">
         <v>12</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="22">
         <v>43188</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+    <row r="14" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" ht="38" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="38" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="K27" s="6"/>
+      <c r="B27" s="3"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="K31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="4"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <f>SUM(F:F)</f>
         <v>23</v>
       </c>

--- a/女宝_20180328.xlsx
+++ b/女宝_20180328.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/G-Drive/cx/mygit/wangyunpiao/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1420" windowWidth="32140" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28180" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="女宝" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="120">
   <si>
     <t>收件人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,25 +292,117 @@
     <t>记录日期</t>
   </si>
   <si>
-    <t>康迪克女杯1⃣️ 寄件人：辰辰妈妈  收货地址：南京市江宁区天元中路东渡国际3栋1505室  陈美君13276673566 身份证号：431121198610291728</t>
+    <t>350822198503213920</t>
+  </si>
+  <si>
+    <t>康迪克女杯1 寄件人：辰辰妈妈  收货地址：南京市江宁区天元中路东渡国际3栋1505室  陈美君13276673566 身份证号：431121198610291728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康迪克女杯1</t>
+  </si>
+  <si>
+    <t>寄件人：辰辰妈妈</t>
+  </si>
+  <si>
+    <t>收货地址：南京市江宁区天元中路东渡国际3栋1505室</t>
+  </si>
+  <si>
+    <t>陈美君</t>
+  </si>
+  <si>
+    <t>13276673566</t>
+  </si>
+  <si>
+    <t>431121198610291728</t>
   </si>
   <si>
     <t>5套女宝:四川省成都市双流西航港机场路近都段6号欧洲印象 周皓月 18628977322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5套女宝</t>
+  </si>
+  <si>
+    <t>四川省成都市双流西航港机场路近都段6号欧洲印象</t>
+  </si>
+  <si>
+    <t>周皓月</t>
+  </si>
+  <si>
+    <t>18628977322</t>
   </si>
   <si>
     <t>10套女款，江苏省常州市钟楼区锦江丽都7丙701孔欣18806338720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10套女款</t>
+  </si>
+  <si>
+    <t>江苏省常州市钟楼区锦江丽都7丙701</t>
+  </si>
+  <si>
+    <t>孔欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18806338720</t>
+  </si>
+  <si>
+    <t>女款5套</t>
+  </si>
+  <si>
+    <t>山东莱芜市莱城区文化北路新起点高中北临奇妙妈妈店铺</t>
   </si>
   <si>
     <t>女款5套山东莱芜市莱城区文化北路新起点高中北临奇妙妈妈店铺赵瑞13863367519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13863367519</t>
+  </si>
+  <si>
+    <t>广西钦州市灵山县聚龙湾A区5栋2单元</t>
+  </si>
+  <si>
+    <t>黄东英</t>
+  </si>
+  <si>
+    <t>河南省新乡市红旗区向阳路与振中路交汇处拉菲国际</t>
+  </si>
+  <si>
+    <t>林丽萍</t>
+  </si>
+  <si>
+    <t>18877781987</t>
+  </si>
+  <si>
+    <t>450721198609116821</t>
   </si>
   <si>
     <t>广西钦州市灵山县聚龙湾A区5栋2单元 黄东英 18877781987，450721198609116821，女宝一套</t>
-  </si>
-  <si>
-    <t>河南省新乡市红旗区向阳路与振中路交汇处拉菲国际  林丽萍13782560915，女孩一套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>河南省新乡市卫滨区解放路紫台一品20号，赵亚楠，13782532325，女孩一套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南省新乡市卫滨区解放路紫台一品20号</t>
+  </si>
+  <si>
+    <t>赵亚楠</t>
+  </si>
+  <si>
+    <t>女宝5套</t>
+  </si>
+  <si>
+    <t>乐山市市中区凤凰路北段269号，优品汇</t>
   </si>
   <si>
     <r>
@@ -377,9 +464,23 @@
       </rPr>
       <t xml:space="preserve"> 18728896662</t>
     </r>
-  </si>
-  <si>
-    <t>350822198503213920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18728896662</t>
+  </si>
+  <si>
+    <t>13782560915</t>
+  </si>
+  <si>
+    <t>13782532325</t>
+  </si>
+  <si>
+    <t>女孩一套</t>
+  </si>
+  <si>
+    <t>河南省新乡市红旗区向阳路与振中路交汇处拉菲国际  林丽萍13782560915，女孩一套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -390,13 +491,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -405,7 +506,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -414,7 +515,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -423,7 +524,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -442,7 +543,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -450,7 +551,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -674,89 +775,89 @@
     </xf>
   </cellXfs>
   <cellStyles count="83">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1092,26 +1193,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A21" activeCellId="1" sqref="A15:XFD15 A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="87.1640625" style="8" customWidth="1"/>
     <col min="9" max="9" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.33203125" style="10" customWidth="1"/>
     <col min="11" max="16384" width="29.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1124,13 +1225,13 @@
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="16" t="s">
@@ -1143,7 +1244,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="34">
       <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
@@ -1154,13 +1255,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="20"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="18">
         <v>1</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="21" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1272,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="51">
       <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
@@ -1184,13 +1285,13 @@
       <c r="D3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="18">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="21" t="s">
         <v>41</v>
       </c>
@@ -1201,7 +1302,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="51">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -1214,13 +1315,13 @@
       <c r="D4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="18">
         <v>1</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
         <v>14</v>
       </c>
@@ -1231,7 +1332,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="76" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="68">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1244,13 +1345,13 @@
       <c r="D5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="18">
         <v>4</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="21" t="s">
         <v>16</v>
       </c>
@@ -1261,7 +1362,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="76" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="85">
       <c r="A6" s="18" t="s">
         <v>19</v>
       </c>
@@ -1274,13 +1375,13 @@
       <c r="D6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="18">
         <v>2</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
         <v>18</v>
       </c>
@@ -1291,7 +1392,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="76" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="68">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -1304,13 +1405,13 @@
       <c r="D7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="18">
         <v>3</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
         <v>20</v>
       </c>
@@ -1321,7 +1422,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="34">
       <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
@@ -1332,13 +1433,13 @@
         <v>35</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="18">
         <v>1</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
         <v>22</v>
       </c>
@@ -1349,7 +1450,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="34">
       <c r="A9" s="23" t="s">
         <v>49</v>
       </c>
@@ -1360,15 +1461,15 @@
         <v>50</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="23">
         <v>2</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="26" t="s">
         <v>52</v>
       </c>
@@ -1379,7 +1480,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="34">
       <c r="A10" s="18" t="s">
         <v>53</v>
       </c>
@@ -1390,13 +1491,13 @@
         <v>55</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="21" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="18">
         <v>1</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="21" t="s">
         <v>56</v>
       </c>
       <c r="H10" s="21" t="s">
@@ -1409,7 +1510,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="51">
       <c r="A11" s="18" t="s">
         <v>62</v>
       </c>
@@ -1420,13 +1521,13 @@
         <v>63</v>
       </c>
       <c r="D11" s="20"/>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="21" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="18">
         <v>1</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="21" t="s">
         <v>59</v>
       </c>
@@ -1437,7 +1538,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="34">
       <c r="A12" s="18" t="s">
         <v>64</v>
       </c>
@@ -1450,13 +1551,13 @@
       <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="21" t="s">
         <v>69</v>
       </c>
       <c r="F12" s="18">
         <v>4</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="21" t="s">
         <v>65</v>
       </c>
@@ -1467,7 +1568,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="51">
       <c r="A13" s="27" t="s">
         <v>72</v>
       </c>
@@ -1480,13 +1581,13 @@
       <c r="D13" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="27">
         <v>2</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="30" t="s">
         <v>76</v>
       </c>
       <c r="H13" s="30" t="s">
@@ -1499,221 +1600,339 @@
         <v>43188</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+    <row r="14" spans="1:10" ht="34">
+      <c r="A14" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="H14" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="I14" s="18">
+        <v>13</v>
+      </c>
+      <c r="J14" s="22">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="34">
+      <c r="A15" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="D15" s="20"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="E15" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="18">
+        <v>5</v>
+      </c>
+      <c r="G15" s="21"/>
       <c r="H15" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
+        <v>87</v>
+      </c>
+      <c r="I15" s="18">
+        <v>14</v>
+      </c>
+      <c r="J15" s="22">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="34">
+      <c r="A16" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="D16" s="20"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="E16" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="18">
+        <v>10</v>
+      </c>
+      <c r="G16" s="21"/>
       <c r="H16" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="I16" s="18">
+        <v>15</v>
+      </c>
+      <c r="J16" s="22">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="51">
+      <c r="A17" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="D17" s="20"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="E17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="18">
+        <v>5</v>
+      </c>
+      <c r="G17" s="21"/>
       <c r="H17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" ht="38" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+        <v>99</v>
+      </c>
+      <c r="I17" s="18">
+        <v>16</v>
+      </c>
+      <c r="J17" s="22">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="34">
+      <c r="A18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" ht="38" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="I18" s="18">
+        <v>17</v>
+      </c>
+      <c r="J18" s="22">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="34">
+      <c r="A19" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="D19" s="20"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="18"/>
+      <c r="E19" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="23">
+        <v>1</v>
+      </c>
+      <c r="G19" s="21"/>
       <c r="H19" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
+        <v>119</v>
+      </c>
+      <c r="I19" s="18">
+        <v>18</v>
+      </c>
+      <c r="J19" s="22">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="5" customFormat="1" ht="34">
+      <c r="A20" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="D20" s="20"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="E20" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="21"/>
       <c r="H20" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="I20" s="18">
+        <v>19</v>
+      </c>
+      <c r="J20" s="22">
+        <v>43188</v>
+      </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
+    <row r="21" spans="1:11" ht="34">
+      <c r="A21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="D21" s="20"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="E21" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="18">
+        <v>5</v>
+      </c>
+      <c r="G21" s="21"/>
       <c r="H21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="I21" s="18">
+        <v>20</v>
+      </c>
+      <c r="J21" s="22">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="B22" s="3"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="B23" s="7"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="B24" s="3"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="B25" s="3"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="B26" s="3"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="B27" s="3"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="2"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="B28" s="3"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="B29" s="3"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="B30" s="3"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="B31" s="7"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="2"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11">
       <c r="B33" s="3"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11">
       <c r="B34" s="3"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11">
       <c r="B35" s="3"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11">
       <c r="B36" s="3"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11">
       <c r="B37" s="3"/>
-      <c r="E37" s="2"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11">
       <c r="B38" s="3"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11">
       <c r="B39" s="3"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11">
       <c r="B40" s="3"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11">
       <c r="K45" s="2">
         <f>SUM(F:F)</f>
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1723,5 +1942,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>